--- a/doc/组织过程资产/产品结构.xlsx
+++ b/doc/组织过程资产/产品结构.xlsx
@@ -16,11 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
-  <si>
-    <t>Attribute</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -82,10 +78,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Product</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -118,10 +110,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Category</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -187,6 +175,70 @@
   </si>
   <si>
     <t>brand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nameEn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nameCn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Panasonic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Canon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佳能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>松下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏普</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱普生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sharp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Epson</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brand（品牌表）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Category（分类表）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attribute（属性表）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Product（产品表）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -300,13 +352,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2647950</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -753,18 +805,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.5" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.625" style="1" bestFit="1" customWidth="1"/>
@@ -772,346 +824,406 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="2" t="s">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>11</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>1111</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3">
+        <v>11</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>1112</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="3">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3">
+      <c r="C13" s="3">
+        <v>2</v>
+      </c>
+      <c r="D13" s="3">
+        <v>11</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="3">
+        <v>2</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>2</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="3">
+        <v>2</v>
+      </c>
+      <c r="D15" s="3">
         <v>0</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="3">
-        <v>11</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="3">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="3">
-        <v>1111</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="3">
-        <v>1</v>
-      </c>
-      <c r="D5" s="3">
-        <v>11</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" s="3">
-        <v>1112</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="3">
-        <v>11</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="3">
-        <v>12</v>
-      </c>
-      <c r="B7" s="3" t="s">
+      <c r="E19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A20" s="3">
+        <v>1</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="3">
-        <v>2</v>
-      </c>
-      <c r="D7" s="3">
-        <v>1</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="3">
-        <v>2</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="3">
-        <v>2</v>
-      </c>
-      <c r="D8" s="3">
+      <c r="C20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3">
         <v>0</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
+      <c r="F20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A12" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A13" s="3">
-        <v>1</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3">
+      <c r="G20" s="3">
         <v>0</v>
       </c>
-      <c r="F13" s="3">
+      <c r="H20" s="3"/>
+      <c r="I20" s="3">
         <v>0</v>
       </c>
-      <c r="G13" s="3">
-        <v>0</v>
-      </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A14" s="3">
-        <v>2</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="3">
-        <v>1111</v>
-      </c>
-      <c r="F14" s="3">
-        <v>1</v>
-      </c>
-      <c r="G14" s="3">
-        <v>2</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A15" s="3">
-        <v>3</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>1</v>
-      </c>
-      <c r="G15" s="3">
-        <v>1</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A16" s="3">
-        <v>4</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="3">
-        <v>1111</v>
-      </c>
-      <c r="F16" s="3">
-        <v>1</v>
-      </c>
-      <c r="G16" s="3">
-        <v>1</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I16" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="3">
-        <v>1</v>
-      </c>
-      <c r="B20" s="3">
-        <v>11110001</v>
-      </c>
-      <c r="C20" s="3">
-        <v>1</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>2</v>
       </c>
-      <c r="B21" s="3">
-        <v>11110001</v>
-      </c>
-      <c r="C21" s="3">
+      <c r="B21" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1111</v>
+      </c>
+      <c r="F21" s="3">
+        <v>1</v>
+      </c>
+      <c r="G21" s="3">
         <v>2</v>
       </c>
-      <c r="D21" s="5">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="H21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>3</v>
       </c>
-      <c r="B22" s="3">
-        <v>11110001</v>
-      </c>
-      <c r="C22" s="4">
-        <v>3</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B22" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1</v>
+      </c>
+      <c r="G22" s="3">
+        <v>1</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>4</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1111</v>
+      </c>
+      <c r="F23" s="3">
+        <v>1</v>
+      </c>
+      <c r="G23" s="3">
+        <v>1</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A25" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A27" s="3">
+        <v>1</v>
+      </c>
+      <c r="B27" s="3">
         <v>11110001</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C27" s="3">
+        <v>1</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A28" s="3">
+        <v>2</v>
+      </c>
+      <c r="B28" s="3">
+        <v>11110001</v>
+      </c>
+      <c r="C28" s="3">
+        <v>2</v>
+      </c>
+      <c r="D28" s="5">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A29" s="3">
+        <v>3</v>
+      </c>
+      <c r="B29" s="3">
+        <v>11110001</v>
+      </c>
+      <c r="C29" s="4">
+        <v>3</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A30" s="3">
         <v>4</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>24</v>
+      <c r="B30" s="3">
+        <v>11110001</v>
+      </c>
+      <c r="C30" s="3">
+        <v>4</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/doc/组织过程资产/产品结构.xlsx
+++ b/doc/组织过程资产/产品结构.xlsx
@@ -4,19 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="135" windowWidth="19395" windowHeight="7605"/>
+    <workbookView xWindow="600" yWindow="165" windowWidth="19395" windowHeight="7575" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="表举例" sheetId="1" r:id="rId1"/>
+    <sheet name="属性说明" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="73">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -239,6 +238,121 @@
   </si>
   <si>
     <t>Product（产品表）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性是否可排序，值为：0 或 1
+0：不排序
+1：可排序
+目前还未支持</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>sort</t>
+  </si>
+  <si>
+    <t>showValue</t>
+  </si>
+  <si>
+    <t>如果 属性 可筛选，需要确认 属性 是 什么筛选类型，值为：
+0：无类型
+1：组合型，例如颜色：黑色,白色,金色 等
+2：价格型，特指价格：0-999,1000-1999,2000-3599 等
+3：连续型，例如尺寸：0-3.5寸,3.5-4寸 等</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>filterType</t>
+  </si>
+  <si>
+    <t>属性是否可筛选，用于 二级分类 下，值为：0 或 1
+0：不可筛选
+1：可筛选</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>filter</t>
+  </si>
+  <si>
+    <t>商品顶级分类 下的 二级分类ID，是4位数字，例如：多功能打印机 为 ：1112</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>categoryId</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>属性名称，中文，用于在 产品详情 页面展示 规格参数 时使用</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">name </t>
+  </si>
+  <si>
+    <t>属性ID</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>nameId</t>
+  </si>
+  <si>
+    <r>
+      <t>属性可选值，用于程序内部查询等使用。如果无特别指定值，此处即为空值，为方便程序使用，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>空值使用 # 号代替</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。
+例如：某种商品的 颜色 属性，可选值为：白色、黑色和金色。多值场合，用英文逗号隔开</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>属性可选值，用于页面显示等。如果无特别指定值，此处即为空值，为方便程序使用，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>空值使用 # 号代替</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。
+例如：某种商品的 颜色 属性，可选值为：白色、黑色和金色。多值场合，用英文逗号隔开</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性说明</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -246,7 +360,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -265,6 +379,43 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -308,12 +459,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -332,9 +486,25 @@
     <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -807,7 +977,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
@@ -1236,26 +1406,89 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="14" style="8" customWidth="1"/>
+    <col min="2" max="2" width="66.25" style="9" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="66" x14ac:dyDescent="0.15">
+      <c r="A4" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="82.5" x14ac:dyDescent="0.15">
+      <c r="A7" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="66" x14ac:dyDescent="0.15">
+      <c r="A8" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="66" x14ac:dyDescent="0.15">
+      <c r="A9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>